--- a/celldex_24hr_1mgkg_psilo_inj.xlsx
+++ b/celldex_24hr_1mgkg_psilo_inj.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="219" documentId="11_F25DC773A252ABDACC10487FC11D54BE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E8E3A1-FF55-497B-BCFC-F4B7A00C0637}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CellLabels" sheetId="2" r:id="rId1"/>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678C48D5-0F26-4146-9EC8-47116459B2FD}">
   <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1874,7 +1874,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
